--- a/Financials/Quarterly/SKM_QTR_FIN.xlsx
+++ b/Financials/Quarterly/SKM_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0435601-0867-4943-8872-3120BC842E3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SKM" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -300,9 +301,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -344,7 +345,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -441,6 +442,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -476,6 +494,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -651,153 +686,178 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="6.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43008</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3738900</v>
+        <v>3829500</v>
       </c>
       <c r="E8" s="3">
-        <v>3763400</v>
+        <v>3684000</v>
       </c>
       <c r="F8" s="3">
-        <v>4047600</v>
+        <v>3655800</v>
       </c>
       <c r="G8" s="3">
-        <v>3998500</v>
+        <v>3679800</v>
       </c>
       <c r="H8" s="3">
-        <v>3911000</v>
+        <v>3957600</v>
       </c>
       <c r="I8" s="3">
+        <v>3909600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3824100</v>
+      </c>
+      <c r="K8" s="3">
         <v>3810900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>3917000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3819400</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>196900</v>
+        <v>142900</v>
       </c>
       <c r="E9" s="3">
-        <v>193500</v>
+        <v>186800</v>
       </c>
       <c r="F9" s="3">
-        <v>195100</v>
+        <v>192600</v>
       </c>
       <c r="G9" s="3">
-        <v>201700</v>
+        <v>189200</v>
       </c>
       <c r="H9" s="3">
-        <v>191700</v>
+        <v>190800</v>
       </c>
       <c r="I9" s="3">
+        <v>197200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>187500</v>
+      </c>
+      <c r="K9" s="3">
         <v>199000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>153400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>238000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3541900</v>
+        <v>3686600</v>
       </c>
       <c r="E10" s="3">
-        <v>3569900</v>
+        <v>3497300</v>
       </c>
       <c r="F10" s="3">
-        <v>3852500</v>
+        <v>3463200</v>
       </c>
       <c r="G10" s="3">
-        <v>3796700</v>
+        <v>3490600</v>
       </c>
       <c r="H10" s="3">
-        <v>3719300</v>
+        <v>3766900</v>
       </c>
       <c r="I10" s="3">
+        <v>3712400</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3636700</v>
+      </c>
+      <c r="K10" s="3">
         <v>3612000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>3763600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>3581400</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,37 +869,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>88400</v>
+        <v>93200</v>
       </c>
       <c r="E12" s="3">
-        <v>80500</v>
+        <v>82800</v>
       </c>
       <c r="F12" s="3">
-        <v>92400</v>
+        <v>86500</v>
       </c>
       <c r="G12" s="3">
-        <v>92900</v>
+        <v>78700</v>
       </c>
       <c r="H12" s="3">
-        <v>85400</v>
+        <v>90300</v>
       </c>
       <c r="I12" s="3">
+        <v>90800</v>
+      </c>
+      <c r="J12" s="3">
+        <v>83500</v>
+      </c>
+      <c r="K12" s="3">
         <v>85200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>82100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>76900</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -867,66 +935,84 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>224200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>400</v>
+      </c>
+      <c r="F14" s="3">
         <v>2200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>800</v>
       </c>
-      <c r="F14" s="3">
-        <v>53400</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>52300</v>
+      </c>
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
-        <v>3800</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K14" s="3">
         <v>2000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>5700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>690900</v>
+        <v>708300</v>
       </c>
       <c r="E15" s="3">
-        <v>707400</v>
+        <v>675400</v>
       </c>
       <c r="F15" s="3">
-        <v>712700</v>
+        <v>675600</v>
       </c>
       <c r="G15" s="3">
-        <v>699900</v>
+        <v>691700</v>
       </c>
       <c r="H15" s="3">
-        <v>689600</v>
+        <v>696900</v>
       </c>
       <c r="I15" s="3">
+        <v>684300</v>
+      </c>
+      <c r="J15" s="3">
+        <v>674200</v>
+      </c>
+      <c r="K15" s="3">
         <v>685500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>695000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>659700</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -935,66 +1021,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>3428900</v>
+        <v>3855400</v>
       </c>
       <c r="E17" s="3">
-        <v>3471300</v>
+        <v>3416800</v>
       </c>
       <c r="F17" s="3">
-        <v>3821600</v>
+        <v>3352700</v>
       </c>
       <c r="G17" s="3">
-        <v>3645600</v>
+        <v>3394100</v>
       </c>
       <c r="H17" s="3">
-        <v>3533900</v>
+        <v>3736700</v>
       </c>
       <c r="I17" s="3">
+        <v>3564600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3455400</v>
+      </c>
+      <c r="K17" s="3">
         <v>3443500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3650900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3442500</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>310000</v>
+        <v>-25900</v>
       </c>
       <c r="E18" s="3">
-        <v>292100</v>
+        <v>267200</v>
       </c>
       <c r="F18" s="3">
-        <v>226000</v>
+        <v>303100</v>
       </c>
       <c r="G18" s="3">
-        <v>352900</v>
+        <v>285600</v>
       </c>
       <c r="H18" s="3">
-        <v>377100</v>
+        <v>220900</v>
       </c>
       <c r="I18" s="3">
+        <v>345000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>368800</v>
+      </c>
+      <c r="K18" s="3">
         <v>367500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>266100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>376900</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1006,153 +1106,185 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>801400</v>
+        <v>636000</v>
       </c>
       <c r="E20" s="3">
-        <v>591800</v>
+        <v>941000</v>
       </c>
       <c r="F20" s="3">
-        <v>677800</v>
+        <v>783600</v>
       </c>
       <c r="G20" s="3">
-        <v>615600</v>
+        <v>578600</v>
       </c>
       <c r="H20" s="3">
-        <v>364000</v>
+        <v>662700</v>
       </c>
       <c r="I20" s="3">
+        <v>601900</v>
+      </c>
+      <c r="J20" s="3">
+        <v>355900</v>
+      </c>
+      <c r="K20" s="3">
         <v>351300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>307600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>78400</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1837300</v>
+        <v>1355100</v>
       </c>
       <c r="E21" s="3">
-        <v>1625400</v>
+        <v>1918600</v>
       </c>
       <c r="F21" s="3">
-        <v>1652600</v>
+        <v>1796500</v>
       </c>
       <c r="G21" s="3">
-        <v>1703500</v>
+        <v>1589300</v>
       </c>
       <c r="H21" s="3">
-        <v>1464900</v>
+        <v>1615900</v>
       </c>
       <c r="I21" s="3">
+        <v>1665600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1432300</v>
+      </c>
+      <c r="K21" s="3">
         <v>1434000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1295900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1143300</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>64700</v>
+        <v>78600</v>
       </c>
       <c r="E22" s="3">
-        <v>67600</v>
+        <v>62500</v>
       </c>
       <c r="F22" s="3">
-        <v>69800</v>
+        <v>63200</v>
       </c>
       <c r="G22" s="3">
-        <v>64800</v>
+        <v>66100</v>
       </c>
       <c r="H22" s="3">
-        <v>67600</v>
+        <v>68300</v>
       </c>
       <c r="I22" s="3">
+        <v>63400</v>
+      </c>
+      <c r="J22" s="3">
+        <v>66100</v>
+      </c>
+      <c r="K22" s="3">
         <v>67000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>66000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>67200</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1046700</v>
+        <v>531500</v>
       </c>
       <c r="E23" s="3">
-        <v>816300</v>
+        <v>1145700</v>
       </c>
       <c r="F23" s="3">
-        <v>833900</v>
+        <v>1023500</v>
       </c>
       <c r="G23" s="3">
-        <v>903600</v>
+        <v>798200</v>
       </c>
       <c r="H23" s="3">
-        <v>673600</v>
+        <v>815400</v>
       </c>
       <c r="I23" s="3">
+        <v>883600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>658600</v>
+      </c>
+      <c r="K23" s="3">
         <v>651800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>507700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>388100</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>223900</v>
+        <v>114000</v>
       </c>
       <c r="E24" s="3">
-        <v>192300</v>
+        <v>221900</v>
       </c>
       <c r="F24" s="3">
-        <v>239300</v>
+        <v>218900</v>
       </c>
       <c r="G24" s="3">
-        <v>190000</v>
+        <v>188000</v>
       </c>
       <c r="H24" s="3">
-        <v>115100</v>
+        <v>234000</v>
       </c>
       <c r="I24" s="3">
+        <v>185800</v>
+      </c>
+      <c r="J24" s="3">
+        <v>112600</v>
+      </c>
+      <c r="K24" s="3">
         <v>126700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>80500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>98200</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1180,66 +1312,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>822900</v>
+        <v>417600</v>
       </c>
       <c r="E26" s="3">
-        <v>624000</v>
+        <v>923800</v>
       </c>
       <c r="F26" s="3">
-        <v>594600</v>
+        <v>804600</v>
       </c>
       <c r="G26" s="3">
-        <v>713700</v>
+        <v>610200</v>
       </c>
       <c r="H26" s="3">
-        <v>558500</v>
+        <v>581400</v>
       </c>
       <c r="I26" s="3">
+        <v>697800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>546000</v>
+      </c>
+      <c r="K26" s="3">
         <v>525100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>427200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>289900</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>817400</v>
+        <v>423500</v>
       </c>
       <c r="E27" s="3">
-        <v>625500</v>
+        <v>904400</v>
       </c>
       <c r="F27" s="3">
-        <v>523400</v>
+        <v>799200</v>
       </c>
       <c r="G27" s="3">
-        <v>716200</v>
+        <v>611600</v>
       </c>
       <c r="H27" s="3">
-        <v>554800</v>
+        <v>511800</v>
       </c>
       <c r="I27" s="3">
+        <v>700300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>542500</v>
+      </c>
+      <c r="K27" s="3">
         <v>530200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>432400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1267,8 +1417,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1296,8 +1452,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1325,8 +1487,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1354,66 +1522,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-801400</v>
+        <v>-636000</v>
       </c>
       <c r="E32" s="3">
-        <v>-591800</v>
+        <v>-941000</v>
       </c>
       <c r="F32" s="3">
-        <v>-677800</v>
+        <v>-783600</v>
       </c>
       <c r="G32" s="3">
-        <v>-615600</v>
+        <v>-578600</v>
       </c>
       <c r="H32" s="3">
-        <v>-364000</v>
+        <v>-662700</v>
       </c>
       <c r="I32" s="3">
+        <v>-601900</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-355900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-351300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-307600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-78400</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>817400</v>
+        <v>423500</v>
       </c>
       <c r="E33" s="3">
-        <v>625500</v>
+        <v>904400</v>
       </c>
       <c r="F33" s="3">
-        <v>523400</v>
+        <v>799200</v>
       </c>
       <c r="G33" s="3">
-        <v>716200</v>
+        <v>611600</v>
       </c>
       <c r="H33" s="3">
-        <v>554800</v>
+        <v>511800</v>
       </c>
       <c r="I33" s="3">
+        <v>700300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>542500</v>
+      </c>
+      <c r="K33" s="3">
         <v>530200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>432400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1441,71 +1627,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>817400</v>
+        <v>423500</v>
       </c>
       <c r="E35" s="3">
-        <v>625500</v>
+        <v>904400</v>
       </c>
       <c r="F35" s="3">
-        <v>523400</v>
+        <v>799200</v>
       </c>
       <c r="G35" s="3">
-        <v>716200</v>
+        <v>611600</v>
       </c>
       <c r="H35" s="3">
-        <v>554800</v>
+        <v>511800</v>
       </c>
       <c r="I35" s="3">
+        <v>700300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>542500</v>
+      </c>
+      <c r="K35" s="3">
         <v>530200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>432400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43008</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1517,8 +1721,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1530,269 +1736,325 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1616600</v>
+        <v>1325900</v>
       </c>
       <c r="E41" s="3">
-        <v>1697200</v>
+        <v>2431900</v>
       </c>
       <c r="F41" s="3">
-        <v>1312000</v>
+        <v>1580600</v>
       </c>
       <c r="G41" s="3">
-        <v>1302500</v>
+        <v>1659500</v>
       </c>
       <c r="H41" s="3">
-        <v>1113900</v>
+        <v>1282800</v>
       </c>
       <c r="I41" s="3">
+        <v>1273500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1089100</v>
+      </c>
+      <c r="K41" s="3">
         <v>1418400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1354700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>773300</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>484900</v>
+        <v>1021900</v>
       </c>
       <c r="E42" s="3">
-        <v>579500</v>
+        <v>345600</v>
       </c>
       <c r="F42" s="3">
-        <v>604200</v>
+        <v>474200</v>
       </c>
       <c r="G42" s="3">
-        <v>640500</v>
+        <v>566600</v>
       </c>
       <c r="H42" s="3">
-        <v>661900</v>
+        <v>590800</v>
       </c>
       <c r="I42" s="3">
+        <v>626300</v>
+      </c>
+      <c r="J42" s="3">
+        <v>647200</v>
+      </c>
+      <c r="K42" s="3">
         <v>612800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>437300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>580900</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>2931900</v>
+        <v>2729500</v>
       </c>
       <c r="E43" s="3">
-        <v>3406500</v>
+        <v>3303200</v>
       </c>
       <c r="F43" s="3">
-        <v>3108300</v>
+        <v>2866800</v>
       </c>
       <c r="G43" s="3">
-        <v>2891100</v>
+        <v>3330800</v>
       </c>
       <c r="H43" s="3">
-        <v>2966700</v>
+        <v>3039200</v>
       </c>
       <c r="I43" s="3">
+        <v>2826800</v>
+      </c>
+      <c r="J43" s="3">
+        <v>2900700</v>
+      </c>
+      <c r="K43" s="3">
         <v>2901300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>3081700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>3293200</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>233400</v>
+        <v>253500</v>
       </c>
       <c r="E44" s="3">
-        <v>229000</v>
+        <v>226800</v>
       </c>
       <c r="F44" s="3">
-        <v>245200</v>
+        <v>228200</v>
       </c>
       <c r="G44" s="3">
-        <v>224000</v>
+        <v>223900</v>
       </c>
       <c r="H44" s="3">
-        <v>237100</v>
+        <v>239700</v>
       </c>
       <c r="I44" s="3">
+        <v>219000</v>
+      </c>
+      <c r="J44" s="3">
+        <v>231900</v>
+      </c>
+      <c r="K44" s="3">
         <v>223700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>233900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>246600</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>1766100</v>
+        <v>1673000</v>
       </c>
       <c r="E45" s="3">
-        <v>1712000</v>
+        <v>1635000</v>
       </c>
       <c r="F45" s="3">
-        <v>312000</v>
+        <v>1726900</v>
       </c>
       <c r="G45" s="3">
-        <v>349500</v>
+        <v>1673900</v>
       </c>
       <c r="H45" s="3">
-        <v>233800</v>
+        <v>305100</v>
       </c>
       <c r="I45" s="3">
+        <v>341700</v>
+      </c>
+      <c r="J45" s="3">
+        <v>228600</v>
+      </c>
+      <c r="K45" s="3">
         <v>212400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>289400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>305900</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>7032900</v>
+        <v>7003800</v>
       </c>
       <c r="E46" s="3">
-        <v>7624200</v>
+        <v>7942600</v>
       </c>
       <c r="F46" s="3">
-        <v>5581600</v>
+        <v>6876600</v>
       </c>
       <c r="G46" s="3">
-        <v>5407500</v>
+        <v>7454700</v>
       </c>
       <c r="H46" s="3">
-        <v>5213400</v>
+        <v>5457600</v>
       </c>
       <c r="I46" s="3">
+        <v>5287300</v>
+      </c>
+      <c r="J46" s="3">
+        <v>5097500</v>
+      </c>
+      <c r="K46" s="3">
         <v>5368600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>5397000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>5199900</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>11172600</v>
+        <v>12174500</v>
       </c>
       <c r="E47" s="3">
-        <v>10243600</v>
+        <v>11641900</v>
       </c>
       <c r="F47" s="3">
-        <v>9698500</v>
+        <v>10924300</v>
       </c>
       <c r="G47" s="3">
-        <v>9102100</v>
+        <v>10015900</v>
       </c>
       <c r="H47" s="3">
-        <v>8213100</v>
+        <v>9483000</v>
       </c>
       <c r="I47" s="3">
+        <v>8899800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>8030500</v>
+      </c>
+      <c r="K47" s="3">
         <v>7602200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>7603200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>7518000</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>8581400</v>
+        <v>9432200</v>
       </c>
       <c r="E48" s="3">
-        <v>8683700</v>
+        <v>8341900</v>
       </c>
       <c r="F48" s="3">
-        <v>9130400</v>
+        <v>8390700</v>
       </c>
       <c r="G48" s="3">
-        <v>8641400</v>
+        <v>8490700</v>
       </c>
       <c r="H48" s="3">
-        <v>8616300</v>
+        <v>8927500</v>
       </c>
       <c r="I48" s="3">
+        <v>8449400</v>
+      </c>
+      <c r="J48" s="3">
+        <v>8424900</v>
+      </c>
+      <c r="K48" s="3">
         <v>8936000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>9336800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>8818900</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>4766300</v>
+        <v>7437800</v>
       </c>
       <c r="E49" s="3">
-        <v>4833200</v>
+        <v>4531000</v>
       </c>
       <c r="F49" s="3">
-        <v>4951800</v>
+        <v>4660400</v>
       </c>
       <c r="G49" s="3">
-        <v>5047100</v>
+        <v>4725800</v>
       </c>
       <c r="H49" s="3">
-        <v>5114500</v>
+        <v>4841700</v>
       </c>
       <c r="I49" s="3">
+        <v>4934900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>5000900</v>
+      </c>
+      <c r="K49" s="3">
         <v>5037500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>5137900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>4591200</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1820,8 +2082,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1849,37 +2117,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1149900</v>
+        <v>1236500</v>
       </c>
       <c r="E52" s="3">
-        <v>1136300</v>
+        <v>1146700</v>
       </c>
       <c r="F52" s="3">
-        <v>723500</v>
+        <v>1124300</v>
       </c>
       <c r="G52" s="3">
-        <v>533400</v>
+        <v>1111000</v>
       </c>
       <c r="H52" s="3">
-        <v>542700</v>
+        <v>707400</v>
       </c>
       <c r="I52" s="3">
+        <v>521500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>530700</v>
+      </c>
+      <c r="K52" s="3">
         <v>521800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>693000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>472200</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -1907,37 +2187,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>32703100</v>
+        <v>37284800</v>
       </c>
       <c r="E54" s="3">
-        <v>32520900</v>
+        <v>33604100</v>
       </c>
       <c r="F54" s="3">
-        <v>30085800</v>
+        <v>31976300</v>
       </c>
       <c r="G54" s="3">
-        <v>28731400</v>
+        <v>31798300</v>
       </c>
       <c r="H54" s="3">
-        <v>27700000</v>
+        <v>29417200</v>
       </c>
       <c r="I54" s="3">
+        <v>28093000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>27084400</v>
+      </c>
+      <c r="K54" s="3">
         <v>27466000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>28167900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>26600100</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -1949,8 +2241,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -1962,182 +2256,220 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>236900</v>
+        <v>335500</v>
       </c>
       <c r="E57" s="3">
-        <v>219200</v>
+        <v>236300</v>
       </c>
       <c r="F57" s="3">
-        <v>316500</v>
+        <v>231600</v>
       </c>
       <c r="G57" s="3">
-        <v>231400</v>
+        <v>214300</v>
       </c>
       <c r="H57" s="3">
-        <v>224400</v>
+        <v>309500</v>
       </c>
       <c r="I57" s="3">
+        <v>226300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>219400</v>
+      </c>
+      <c r="K57" s="3">
         <v>237100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>362200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>276000</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>917200</v>
+        <v>936600</v>
       </c>
       <c r="E58" s="3">
-        <v>1277400</v>
+        <v>1088600</v>
       </c>
       <c r="F58" s="3">
-        <v>1494900</v>
+        <v>896900</v>
       </c>
       <c r="G58" s="3">
-        <v>1485600</v>
+        <v>1249000</v>
       </c>
       <c r="H58" s="3">
-        <v>1345400</v>
+        <v>1461600</v>
       </c>
       <c r="I58" s="3">
+        <v>1452600</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1315500</v>
+      </c>
+      <c r="K58" s="3">
         <v>944800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>802000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>615100</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>4029200</v>
+        <v>4753700</v>
       </c>
       <c r="E59" s="3">
-        <v>4698700</v>
+        <v>3858100</v>
       </c>
       <c r="F59" s="3">
-        <v>4586800</v>
+        <v>3939700</v>
       </c>
       <c r="G59" s="3">
-        <v>4031900</v>
+        <v>4594300</v>
       </c>
       <c r="H59" s="3">
-        <v>3909800</v>
+        <v>4484900</v>
       </c>
       <c r="I59" s="3">
+        <v>3942300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>3822900</v>
+      </c>
+      <c r="K59" s="3">
         <v>4448200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>4635500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3962700</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>5183300</v>
+        <v>6025900</v>
       </c>
       <c r="E60" s="3">
-        <v>6195300</v>
+        <v>5183000</v>
       </c>
       <c r="F60" s="3">
-        <v>6398200</v>
+        <v>5068100</v>
       </c>
       <c r="G60" s="3">
-        <v>5749000</v>
+        <v>6057700</v>
       </c>
       <c r="H60" s="3">
-        <v>5479600</v>
+        <v>6256000</v>
       </c>
       <c r="I60" s="3">
+        <v>5621200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>5357800</v>
+      </c>
+      <c r="K60" s="3">
         <v>5630000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>5799700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4853900</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>5943600</v>
+        <v>7557100</v>
       </c>
       <c r="E61" s="3">
-        <v>5699600</v>
+        <v>6057300</v>
       </c>
       <c r="F61" s="3">
-        <v>5227300</v>
+        <v>5811500</v>
       </c>
       <c r="G61" s="3">
-        <v>5220400</v>
+        <v>5573000</v>
       </c>
       <c r="H61" s="3">
-        <v>5295900</v>
+        <v>5111100</v>
       </c>
       <c r="I61" s="3">
+        <v>5104400</v>
+      </c>
+      <c r="J61" s="3">
+        <v>5178200</v>
+      </c>
+      <c r="K61" s="3">
         <v>5654600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>5830800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>5840500</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>2758300</v>
+        <v>4034600</v>
       </c>
       <c r="E62" s="3">
-        <v>2636900</v>
+        <v>2853500</v>
       </c>
       <c r="F62" s="3">
-        <v>2234100</v>
+        <v>2697000</v>
       </c>
       <c r="G62" s="3">
-        <v>2033600</v>
+        <v>2578300</v>
       </c>
       <c r="H62" s="3">
-        <v>1916800</v>
+        <v>2184400</v>
       </c>
       <c r="I62" s="3">
+        <v>1988400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1874200</v>
+      </c>
+      <c r="K62" s="3">
         <v>1860200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2032600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1915900</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2165,8 +2497,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2194,8 +2532,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2223,37 +2567,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>14068600</v>
+        <v>17510500</v>
       </c>
       <c r="E66" s="3">
-        <v>14709000</v>
+        <v>14338700</v>
       </c>
       <c r="F66" s="3">
-        <v>14027900</v>
+        <v>13756000</v>
       </c>
       <c r="G66" s="3">
-        <v>13125900</v>
+        <v>14382100</v>
       </c>
       <c r="H66" s="3">
-        <v>12783900</v>
+        <v>13716100</v>
       </c>
       <c r="I66" s="3">
+        <v>12834200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>12499800</v>
+      </c>
+      <c r="K66" s="3">
         <v>13239200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>13793600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>12760400</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2265,8 +2621,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2294,8 +2652,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2323,8 +2687,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2352,8 +2722,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2381,37 +2757,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>18679200</v>
+        <v>19487200</v>
       </c>
       <c r="E72" s="3">
-        <v>17858100</v>
+        <v>19093300</v>
       </c>
       <c r="F72" s="3">
-        <v>16052400</v>
+        <v>18264100</v>
       </c>
       <c r="G72" s="3">
-        <v>15518200</v>
+        <v>17461300</v>
       </c>
       <c r="H72" s="3">
-        <v>14862100</v>
+        <v>15695600</v>
       </c>
       <c r="I72" s="3">
+        <v>15173300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>14531800</v>
+      </c>
+      <c r="K72" s="3">
         <v>14306000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>14357800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>13922500</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2439,8 +2827,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2468,8 +2862,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2497,37 +2897,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>18634500</v>
+        <v>19774300</v>
       </c>
       <c r="E76" s="3">
-        <v>17812000</v>
+        <v>19265400</v>
       </c>
       <c r="F76" s="3">
-        <v>16057900</v>
+        <v>18220400</v>
       </c>
       <c r="G76" s="3">
-        <v>15605500</v>
+        <v>17416100</v>
       </c>
       <c r="H76" s="3">
-        <v>14916100</v>
+        <v>15701100</v>
       </c>
       <c r="I76" s="3">
+        <v>15258700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>14584600</v>
+      </c>
+      <c r="K76" s="3">
         <v>14226800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>14374300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>13839700</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2555,71 +2967,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43008</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>817400</v>
+        <v>423500</v>
       </c>
       <c r="E81" s="3">
-        <v>625500</v>
+        <v>904400</v>
       </c>
       <c r="F81" s="3">
-        <v>523400</v>
+        <v>799200</v>
       </c>
       <c r="G81" s="3">
-        <v>716200</v>
+        <v>611600</v>
       </c>
       <c r="H81" s="3">
-        <v>554800</v>
+        <v>511800</v>
       </c>
       <c r="I81" s="3">
+        <v>700300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>542500</v>
+      </c>
+      <c r="K81" s="3">
         <v>530200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>432400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2631,37 +3061,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>725900</v>
+        <v>745000</v>
       </c>
       <c r="E83" s="3">
-        <v>741500</v>
+        <v>710400</v>
       </c>
       <c r="F83" s="3">
-        <v>748800</v>
+        <v>709800</v>
       </c>
       <c r="G83" s="3">
-        <v>735000</v>
+        <v>725000</v>
       </c>
       <c r="H83" s="3">
-        <v>723700</v>
+        <v>732200</v>
       </c>
       <c r="I83" s="3">
+        <v>718700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>707600</v>
+      </c>
+      <c r="K83" s="3">
         <v>715200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>722200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>688100</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2689,8 +3127,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2718,8 +3162,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -2747,8 +3197,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -2776,8 +3232,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -2805,37 +3267,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>1098100</v>
+        <v>1455200</v>
       </c>
       <c r="E89" s="3">
-        <v>888500</v>
+        <v>415000</v>
       </c>
       <c r="F89" s="3">
-        <v>847400</v>
+        <v>1073700</v>
       </c>
       <c r="G89" s="3">
-        <v>991400</v>
+        <v>868800</v>
       </c>
       <c r="H89" s="3">
-        <v>794100</v>
+        <v>828600</v>
       </c>
       <c r="I89" s="3">
+        <v>969400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>776500</v>
+      </c>
+      <c r="K89" s="3">
         <v>837300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1379600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>799200</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -2847,37 +3321,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-422200</v>
+        <v>-827300</v>
       </c>
       <c r="E91" s="3">
-        <v>-595500</v>
+        <v>-675900</v>
       </c>
       <c r="F91" s="3">
-        <v>-807400</v>
+        <v>-401900</v>
       </c>
       <c r="G91" s="3">
-        <v>-725000</v>
+        <v>-552200</v>
       </c>
       <c r="H91" s="3">
-        <v>-434100</v>
+        <v>-730500</v>
       </c>
       <c r="I91" s="3">
+        <v>-688700</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-391900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-608900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1158400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-855700</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -2905,8 +3387,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -2934,37 +3422,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-381400</v>
+        <v>-2392800</v>
       </c>
       <c r="E94" s="3">
-        <v>-489500</v>
+        <v>-317600</v>
       </c>
       <c r="F94" s="3">
-        <v>-865100</v>
+        <v>-373000</v>
       </c>
       <c r="G94" s="3">
-        <v>-823500</v>
+        <v>-478600</v>
       </c>
       <c r="H94" s="3">
-        <v>-484300</v>
+        <v>-845900</v>
       </c>
       <c r="I94" s="3">
+        <v>-805200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-473600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-590600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-755400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-667600</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -2976,8 +3476,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -2985,28 +3487,34 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-62100</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-62100</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-63500</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-63500</v>
-      </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3034,8 +3542,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3063,8 +3577,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3092,91 +3612,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-799500</v>
+        <v>-171100</v>
       </c>
       <c r="E100" s="3">
-        <v>-14300</v>
+        <v>757000</v>
       </c>
       <c r="F100" s="3">
-        <v>30900</v>
+        <v>-781700</v>
       </c>
       <c r="G100" s="3">
-        <v>19600</v>
+        <v>-13900</v>
       </c>
       <c r="H100" s="3">
-        <v>-616700</v>
+        <v>30200</v>
       </c>
       <c r="I100" s="3">
+        <v>19200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-603000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-177800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-48400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-343800</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F101" s="3">
         <v>2200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>400</v>
       </c>
-      <c r="F101" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="I101" s="3">
         <v>1100</v>
       </c>
-      <c r="H101" s="3">
-        <v>2400</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-5200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>5600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-80600</v>
+        <v>-1106000</v>
       </c>
       <c r="E102" s="3">
-        <v>385200</v>
+        <v>851300</v>
       </c>
       <c r="F102" s="3">
-        <v>9500</v>
+        <v>-78800</v>
       </c>
       <c r="G102" s="3">
-        <v>188600</v>
+        <v>376600</v>
       </c>
       <c r="H102" s="3">
-        <v>-304500</v>
+        <v>9300</v>
       </c>
       <c r="I102" s="3">
+        <v>184400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-297700</v>
+      </c>
+      <c r="K102" s="3">
         <v>63700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>581400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-216300</v>
       </c>
     </row>

--- a/Financials/Quarterly/SKM_QTR_FIN.xlsx
+++ b/Financials/Quarterly/SKM_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0435601-0867-4943-8872-3120BC842E3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="SKM" sheetId="6" r:id="rId1"/>
@@ -301,7 +300,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -442,23 +441,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -494,23 +476,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -686,178 +651,217 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3829500</v>
+        <v>3831400</v>
       </c>
       <c r="E8" s="3">
-        <v>3684000</v>
+        <v>3727100</v>
       </c>
       <c r="F8" s="3">
-        <v>3655800</v>
+        <v>3641300</v>
       </c>
       <c r="G8" s="3">
-        <v>3679800</v>
+        <v>3655400</v>
       </c>
       <c r="H8" s="3">
+        <v>3516600</v>
+      </c>
+      <c r="I8" s="3">
+        <v>3489600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3512500</v>
+      </c>
+      <c r="K8" s="3">
         <v>3957600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>3909600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>3824100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>3810900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>3917000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>3819400</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>142900</v>
+        <v>154500</v>
       </c>
       <c r="E9" s="3">
-        <v>186800</v>
+        <v>157700</v>
       </c>
       <c r="F9" s="3">
-        <v>192600</v>
+        <v>159100</v>
       </c>
       <c r="G9" s="3">
-        <v>189200</v>
+        <v>136400</v>
       </c>
       <c r="H9" s="3">
+        <v>178300</v>
+      </c>
+      <c r="I9" s="3">
+        <v>183800</v>
+      </c>
+      <c r="J9" s="3">
+        <v>180600</v>
+      </c>
+      <c r="K9" s="3">
         <v>190800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>197200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>187500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>199000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="O9" s="3">
         <v>153400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="P9" s="3">
         <v>238000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3686600</v>
+        <v>3676900</v>
       </c>
       <c r="E10" s="3">
-        <v>3497300</v>
+        <v>3569400</v>
       </c>
       <c r="F10" s="3">
-        <v>3463200</v>
+        <v>3482300</v>
       </c>
       <c r="G10" s="3">
-        <v>3490600</v>
+        <v>3519000</v>
       </c>
       <c r="H10" s="3">
+        <v>3338300</v>
+      </c>
+      <c r="I10" s="3">
+        <v>3305800</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3331900</v>
+      </c>
+      <c r="K10" s="3">
         <v>3766900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>3712400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>3636700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>3612000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="O10" s="3">
         <v>3763600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="P10" s="3">
         <v>3581400</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -871,43 +875,55 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>93200</v>
+        <v>78700</v>
       </c>
       <c r="E12" s="3">
-        <v>82800</v>
+        <v>80800</v>
       </c>
       <c r="F12" s="3">
-        <v>86500</v>
+        <v>83800</v>
       </c>
       <c r="G12" s="3">
-        <v>78700</v>
+        <v>88900</v>
       </c>
       <c r="H12" s="3">
+        <v>79100</v>
+      </c>
+      <c r="I12" s="3">
+        <v>82500</v>
+      </c>
+      <c r="J12" s="3">
+        <v>75100</v>
+      </c>
+      <c r="K12" s="3">
         <v>90300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="L12" s="3">
         <v>90800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="M12" s="3">
         <v>83500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="N12" s="3">
         <v>85200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="O12" s="3">
         <v>82100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="P12" s="3">
         <v>76900</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,78 +957,105 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>224200</v>
+        <v>-8300</v>
       </c>
       <c r="E14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>100</v>
+      </c>
+      <c r="G14" s="3">
+        <v>214000</v>
+      </c>
+      <c r="H14" s="3">
         <v>400</v>
       </c>
-      <c r="F14" s="3">
-        <v>2200</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J14" s="3">
         <v>800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="K14" s="3">
         <v>52300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="M14" s="3">
         <v>3700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="N14" s="3">
         <v>2000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="O14" s="3">
         <v>5700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="P14" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>708300</v>
+        <v>808000</v>
       </c>
       <c r="E15" s="3">
-        <v>675400</v>
+        <v>781500</v>
       </c>
       <c r="F15" s="3">
-        <v>675600</v>
+        <v>748600</v>
       </c>
       <c r="G15" s="3">
-        <v>691700</v>
+        <v>676100</v>
       </c>
       <c r="H15" s="3">
+        <v>644700</v>
+      </c>
+      <c r="I15" s="3">
+        <v>644900</v>
+      </c>
+      <c r="J15" s="3">
+        <v>660200</v>
+      </c>
+      <c r="K15" s="3">
         <v>696900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="L15" s="3">
         <v>684300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="M15" s="3">
         <v>674200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="N15" s="3">
         <v>685500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="O15" s="3">
         <v>695000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="P15" s="3">
         <v>659700</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1023,78 +1066,99 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>3855400</v>
+        <v>3569400</v>
       </c>
       <c r="E17" s="3">
-        <v>3416800</v>
+        <v>3457900</v>
       </c>
       <c r="F17" s="3">
-        <v>3352700</v>
+        <v>3370400</v>
       </c>
       <c r="G17" s="3">
-        <v>3394100</v>
+        <v>3680200</v>
       </c>
       <c r="H17" s="3">
+        <v>3261500</v>
+      </c>
+      <c r="I17" s="3">
+        <v>3200300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3239800</v>
+      </c>
+      <c r="K17" s="3">
         <v>3736700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>3564600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>3455400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>3443500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>3650900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>3442500</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-25900</v>
+        <v>262100</v>
       </c>
       <c r="E18" s="3">
-        <v>267200</v>
+        <v>269200</v>
       </c>
       <c r="F18" s="3">
-        <v>303100</v>
+        <v>270900</v>
       </c>
       <c r="G18" s="3">
-        <v>285600</v>
+        <v>-24700</v>
       </c>
       <c r="H18" s="3">
+        <v>255100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>289300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>272600</v>
+      </c>
+      <c r="K18" s="3">
         <v>220900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>345000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>368800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>367500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>266100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>376900</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1108,183 +1172,231 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>636000</v>
+        <v>114400</v>
       </c>
       <c r="E20" s="3">
-        <v>941000</v>
+        <v>111100</v>
       </c>
       <c r="F20" s="3">
-        <v>783600</v>
+        <v>207900</v>
       </c>
       <c r="G20" s="3">
-        <v>578600</v>
+        <v>607100</v>
       </c>
       <c r="H20" s="3">
+        <v>898200</v>
+      </c>
+      <c r="I20" s="3">
+        <v>748000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>552300</v>
+      </c>
+      <c r="K20" s="3">
         <v>662700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>601900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>355900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>351300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>307600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>78400</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1355100</v>
+        <v>1219000</v>
       </c>
       <c r="E21" s="3">
-        <v>1918600</v>
+        <v>1196400</v>
       </c>
       <c r="F21" s="3">
-        <v>1796500</v>
+        <v>1262000</v>
       </c>
       <c r="G21" s="3">
-        <v>1589300</v>
+        <v>1293500</v>
       </c>
       <c r="H21" s="3">
+        <v>1831400</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1714900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1517100</v>
+      </c>
+      <c r="K21" s="3">
         <v>1615900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>1665600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>1432300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>1434000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>1295900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>1143300</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>78600</v>
+        <v>82900</v>
       </c>
       <c r="E22" s="3">
-        <v>62500</v>
+        <v>83600</v>
       </c>
       <c r="F22" s="3">
-        <v>63200</v>
+        <v>85900</v>
       </c>
       <c r="G22" s="3">
+        <v>75000</v>
+      </c>
+      <c r="H22" s="3">
+        <v>59700</v>
+      </c>
+      <c r="I22" s="3">
+        <v>60400</v>
+      </c>
+      <c r="J22" s="3">
+        <v>63100</v>
+      </c>
+      <c r="K22" s="3">
+        <v>68300</v>
+      </c>
+      <c r="L22" s="3">
+        <v>63400</v>
+      </c>
+      <c r="M22" s="3">
         <v>66100</v>
       </c>
-      <c r="H22" s="3">
-        <v>68300</v>
-      </c>
-      <c r="I22" s="3">
-        <v>63400</v>
-      </c>
-      <c r="J22" s="3">
-        <v>66100</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="N22" s="3">
         <v>67000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="O22" s="3">
         <v>66000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="P22" s="3">
         <v>67200</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>531500</v>
+        <v>293500</v>
       </c>
       <c r="E23" s="3">
-        <v>1145700</v>
+        <v>296700</v>
       </c>
       <c r="F23" s="3">
-        <v>1023500</v>
+        <v>393000</v>
       </c>
       <c r="G23" s="3">
-        <v>798200</v>
+        <v>507400</v>
       </c>
       <c r="H23" s="3">
+        <v>1093600</v>
+      </c>
+      <c r="I23" s="3">
+        <v>977000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>761900</v>
+      </c>
+      <c r="K23" s="3">
         <v>815400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>883600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>658600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>651800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>507700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>388100</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>114000</v>
+        <v>63000</v>
       </c>
       <c r="E24" s="3">
-        <v>221900</v>
+        <v>79100</v>
       </c>
       <c r="F24" s="3">
-        <v>218900</v>
+        <v>79100</v>
       </c>
       <c r="G24" s="3">
-        <v>188000</v>
+        <v>108800</v>
       </c>
       <c r="H24" s="3">
+        <v>211800</v>
+      </c>
+      <c r="I24" s="3">
+        <v>208900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>179400</v>
+      </c>
+      <c r="K24" s="3">
         <v>234000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="L24" s="3">
         <v>185800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="M24" s="3">
         <v>112600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="N24" s="3">
         <v>126700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="O24" s="3">
         <v>80500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="P24" s="3">
         <v>98200</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1318,78 +1430,105 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>417600</v>
+        <v>230500</v>
       </c>
       <c r="E26" s="3">
-        <v>923800</v>
+        <v>217600</v>
       </c>
       <c r="F26" s="3">
-        <v>804600</v>
+        <v>313900</v>
       </c>
       <c r="G26" s="3">
-        <v>610200</v>
+        <v>398600</v>
       </c>
       <c r="H26" s="3">
+        <v>881900</v>
+      </c>
+      <c r="I26" s="3">
+        <v>768000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>582400</v>
+      </c>
+      <c r="K26" s="3">
         <v>581400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>697800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>546000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>525100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>427200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>289900</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>423500</v>
+        <v>227400</v>
       </c>
       <c r="E27" s="3">
-        <v>904400</v>
+        <v>218200</v>
       </c>
       <c r="F27" s="3">
-        <v>799200</v>
+        <v>315400</v>
       </c>
       <c r="G27" s="3">
-        <v>611600</v>
+        <v>404200</v>
       </c>
       <c r="H27" s="3">
+        <v>863300</v>
+      </c>
+      <c r="I27" s="3">
+        <v>762900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>583800</v>
+      </c>
+      <c r="K27" s="3">
         <v>511800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>700300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>542500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>530200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>432400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1423,8 +1562,17 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1458,8 +1606,17 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1493,8 +1650,17 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,78 +1694,105 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-636000</v>
+        <v>-114400</v>
       </c>
       <c r="E32" s="3">
-        <v>-941000</v>
+        <v>-111100</v>
       </c>
       <c r="F32" s="3">
-        <v>-783600</v>
+        <v>-207900</v>
       </c>
       <c r="G32" s="3">
-        <v>-578600</v>
+        <v>-607100</v>
       </c>
       <c r="H32" s="3">
+        <v>-898200</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-748000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-552300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-662700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>-601900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>-355900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>-351300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>-307600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>-78400</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>423500</v>
+        <v>227400</v>
       </c>
       <c r="E33" s="3">
-        <v>904400</v>
+        <v>218200</v>
       </c>
       <c r="F33" s="3">
-        <v>799200</v>
+        <v>315400</v>
       </c>
       <c r="G33" s="3">
-        <v>611600</v>
+        <v>404200</v>
       </c>
       <c r="H33" s="3">
+        <v>863300</v>
+      </c>
+      <c r="I33" s="3">
+        <v>762900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>583800</v>
+      </c>
+      <c r="K33" s="3">
         <v>511800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>700300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>542500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>530200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>432400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1633,83 +1826,110 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>423500</v>
+        <v>227400</v>
       </c>
       <c r="E35" s="3">
-        <v>904400</v>
+        <v>218200</v>
       </c>
       <c r="F35" s="3">
-        <v>799200</v>
+        <v>315400</v>
       </c>
       <c r="G35" s="3">
-        <v>611600</v>
+        <v>404200</v>
       </c>
       <c r="H35" s="3">
+        <v>863300</v>
+      </c>
+      <c r="I35" s="3">
+        <v>762900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>583800</v>
+      </c>
+      <c r="K35" s="3">
         <v>511800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>700300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>542500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>530200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>432400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1723,8 +1943,11 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1738,323 +1961,407 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1325900</v>
+        <v>1083400</v>
       </c>
       <c r="E41" s="3">
-        <v>2431900</v>
+        <v>1219300</v>
       </c>
       <c r="F41" s="3">
-        <v>1580600</v>
+        <v>1727900</v>
       </c>
       <c r="G41" s="3">
-        <v>1659500</v>
+        <v>1265600</v>
       </c>
       <c r="H41" s="3">
+        <v>2321400</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1508800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1584000</v>
+      </c>
+      <c r="K41" s="3">
         <v>1282800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>1273500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>1089100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>1418400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>1354700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>773300</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>1021900</v>
+        <v>817800</v>
       </c>
       <c r="E42" s="3">
-        <v>345600</v>
+        <v>695000</v>
       </c>
       <c r="F42" s="3">
-        <v>474200</v>
+        <v>676700</v>
       </c>
       <c r="G42" s="3">
-        <v>566600</v>
+        <v>975400</v>
       </c>
       <c r="H42" s="3">
+        <v>329900</v>
+      </c>
+      <c r="I42" s="3">
+        <v>452600</v>
+      </c>
+      <c r="J42" s="3">
+        <v>540900</v>
+      </c>
+      <c r="K42" s="3">
         <v>590800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="L42" s="3">
         <v>626300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="M42" s="3">
         <v>647200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="N42" s="3">
         <v>612800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="O42" s="3">
         <v>437300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="P42" s="3">
         <v>580900</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>2729500</v>
+        <v>2946600</v>
       </c>
       <c r="E43" s="3">
-        <v>3303200</v>
+        <v>2730700</v>
       </c>
       <c r="F43" s="3">
-        <v>2866800</v>
+        <v>2877000</v>
       </c>
       <c r="G43" s="3">
-        <v>3330800</v>
+        <v>2605400</v>
       </c>
       <c r="H43" s="3">
+        <v>3153100</v>
+      </c>
+      <c r="I43" s="3">
+        <v>2736500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>3179400</v>
+      </c>
+      <c r="K43" s="3">
         <v>3039200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="L43" s="3">
         <v>2826800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="M43" s="3">
         <v>2900700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="N43" s="3">
         <v>2901300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="O43" s="3">
         <v>3081700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="P43" s="3">
         <v>3293200</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>253500</v>
+        <v>168500</v>
       </c>
       <c r="E44" s="3">
-        <v>226800</v>
+        <v>188100</v>
       </c>
       <c r="F44" s="3">
-        <v>228200</v>
+        <v>221500</v>
       </c>
       <c r="G44" s="3">
-        <v>223900</v>
+        <v>242000</v>
       </c>
       <c r="H44" s="3">
+        <v>216500</v>
+      </c>
+      <c r="I44" s="3">
+        <v>217800</v>
+      </c>
+      <c r="J44" s="3">
+        <v>213800</v>
+      </c>
+      <c r="K44" s="3">
         <v>239700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="L44" s="3">
         <v>219000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="M44" s="3">
         <v>231900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="N44" s="3">
         <v>223700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="O44" s="3">
         <v>233900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="P44" s="3">
         <v>246600</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>1673000</v>
+        <v>1776100</v>
       </c>
       <c r="E45" s="3">
-        <v>1635000</v>
+        <v>1539100</v>
       </c>
       <c r="F45" s="3">
-        <v>1726900</v>
+        <v>1509800</v>
       </c>
       <c r="G45" s="3">
-        <v>1673900</v>
+        <v>1597000</v>
       </c>
       <c r="H45" s="3">
+        <v>1560700</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1648400</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1597800</v>
+      </c>
+      <c r="K45" s="3">
         <v>305100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="L45" s="3">
         <v>341700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="M45" s="3">
         <v>228600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="N45" s="3">
         <v>212400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="O45" s="3">
         <v>289400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="P45" s="3">
         <v>305900</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>7003800</v>
+        <v>6792300</v>
       </c>
       <c r="E46" s="3">
-        <v>7942600</v>
+        <v>6372200</v>
       </c>
       <c r="F46" s="3">
-        <v>6876600</v>
+        <v>7012900</v>
       </c>
       <c r="G46" s="3">
-        <v>7454700</v>
+        <v>6685400</v>
       </c>
       <c r="H46" s="3">
+        <v>7581500</v>
+      </c>
+      <c r="I46" s="3">
+        <v>6564000</v>
+      </c>
+      <c r="J46" s="3">
+        <v>7115900</v>
+      </c>
+      <c r="K46" s="3">
         <v>5457600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>5287300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>5097500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>5368600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>5397000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>5199900</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>12174500</v>
+        <v>12264600</v>
       </c>
       <c r="E47" s="3">
-        <v>11641900</v>
+        <v>11839100</v>
       </c>
       <c r="F47" s="3">
-        <v>10924300</v>
+        <v>11843500</v>
       </c>
       <c r="G47" s="3">
-        <v>10015900</v>
+        <v>11621100</v>
       </c>
       <c r="H47" s="3">
+        <v>11112800</v>
+      </c>
+      <c r="I47" s="3">
+        <v>10427800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>9560700</v>
+      </c>
+      <c r="K47" s="3">
         <v>9483000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="L47" s="3">
         <v>8899800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="M47" s="3">
         <v>8030500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="N47" s="3">
         <v>7602200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="O47" s="3">
         <v>7603200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="P47" s="3">
         <v>7518000</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>9432200</v>
+        <v>9731400</v>
       </c>
       <c r="E48" s="3">
-        <v>8341900</v>
+        <v>9490400</v>
       </c>
       <c r="F48" s="3">
-        <v>8390700</v>
+        <v>9404500</v>
       </c>
       <c r="G48" s="3">
-        <v>8490700</v>
+        <v>9003400</v>
       </c>
       <c r="H48" s="3">
+        <v>7962700</v>
+      </c>
+      <c r="I48" s="3">
+        <v>8009300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>8104800</v>
+      </c>
+      <c r="K48" s="3">
         <v>8927500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>8449400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>8424900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>8936000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>9336800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>8818900</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>7437800</v>
+        <v>6617700</v>
       </c>
       <c r="E49" s="3">
-        <v>4531000</v>
+        <v>6794000</v>
       </c>
       <c r="F49" s="3">
-        <v>4660400</v>
+        <v>6939700</v>
       </c>
       <c r="G49" s="3">
-        <v>4725800</v>
+        <v>7099700</v>
       </c>
       <c r="H49" s="3">
+        <v>4325100</v>
+      </c>
+      <c r="I49" s="3">
+        <v>4448600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>4511000</v>
+      </c>
+      <c r="K49" s="3">
         <v>4841700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="L49" s="3">
         <v>4934900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="M49" s="3">
         <v>5000900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="N49" s="3">
         <v>5037500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="O49" s="3">
         <v>5137900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="P49" s="3">
         <v>4591200</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2088,8 +2395,17 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2123,43 +2439,61 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1236500</v>
+        <v>1540300</v>
       </c>
       <c r="E52" s="3">
-        <v>1146700</v>
+        <v>1280300</v>
       </c>
       <c r="F52" s="3">
-        <v>1124300</v>
+        <v>1210400</v>
       </c>
       <c r="G52" s="3">
-        <v>1111000</v>
+        <v>1180300</v>
       </c>
       <c r="H52" s="3">
+        <v>1094600</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1073200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1060500</v>
+      </c>
+      <c r="K52" s="3">
         <v>707400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="L52" s="3">
         <v>521500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="M52" s="3">
         <v>530700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="N52" s="3">
         <v>521800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="O52" s="3">
         <v>693000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="P52" s="3">
         <v>472200</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2193,43 +2527,61 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>37284800</v>
+        <v>36946400</v>
       </c>
       <c r="E54" s="3">
-        <v>33604100</v>
+        <v>35776100</v>
       </c>
       <c r="F54" s="3">
-        <v>31976300</v>
+        <v>36411000</v>
       </c>
       <c r="G54" s="3">
-        <v>31798300</v>
+        <v>35590100</v>
       </c>
       <c r="H54" s="3">
+        <v>32076700</v>
+      </c>
+      <c r="I54" s="3">
+        <v>30522900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>30352900</v>
+      </c>
+      <c r="K54" s="3">
         <v>29417200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>28093000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>27084400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>27466000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>28167900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>26600100</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2243,8 +2595,11 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2258,218 +2613,275 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>335500</v>
+        <v>382400</v>
       </c>
       <c r="E57" s="3">
-        <v>236300</v>
+        <v>317600</v>
       </c>
       <c r="F57" s="3">
-        <v>231600</v>
+        <v>261900</v>
       </c>
       <c r="G57" s="3">
-        <v>214300</v>
+        <v>320300</v>
       </c>
       <c r="H57" s="3">
+        <v>225600</v>
+      </c>
+      <c r="I57" s="3">
+        <v>221100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>204600</v>
+      </c>
+      <c r="K57" s="3">
         <v>309500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>226300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>219400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>237100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>362200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
         <v>276000</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>936600</v>
+        <v>1155000</v>
       </c>
       <c r="E58" s="3">
-        <v>1088600</v>
+        <v>1250800</v>
       </c>
       <c r="F58" s="3">
-        <v>896900</v>
+        <v>1482100</v>
       </c>
       <c r="G58" s="3">
-        <v>1249000</v>
+        <v>894000</v>
       </c>
       <c r="H58" s="3">
+        <v>1039100</v>
+      </c>
+      <c r="I58" s="3">
+        <v>856100</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1192300</v>
+      </c>
+      <c r="K58" s="3">
         <v>1461600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>1452600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>1315500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>944800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>802000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>615100</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>4753700</v>
+        <v>4651000</v>
       </c>
       <c r="E59" s="3">
-        <v>3858100</v>
+        <v>4261900</v>
       </c>
       <c r="F59" s="3">
-        <v>3939700</v>
+        <v>4910200</v>
       </c>
       <c r="G59" s="3">
-        <v>4594300</v>
+        <v>4537700</v>
       </c>
       <c r="H59" s="3">
+        <v>3682800</v>
+      </c>
+      <c r="I59" s="3">
+        <v>3760600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>4385500</v>
+      </c>
+      <c r="K59" s="3">
         <v>4484900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>3942300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>3822900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>4448200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>4635500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>3962700</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>6025900</v>
+        <v>6188400</v>
       </c>
       <c r="E60" s="3">
-        <v>5183000</v>
+        <v>5830300</v>
       </c>
       <c r="F60" s="3">
-        <v>5068100</v>
+        <v>6654100</v>
       </c>
       <c r="G60" s="3">
-        <v>6057700</v>
+        <v>5751900</v>
       </c>
       <c r="H60" s="3">
+        <v>4947400</v>
+      </c>
+      <c r="I60" s="3">
+        <v>4837800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>5782300</v>
+      </c>
+      <c r="K60" s="3">
         <v>6256000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>5621200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>5357800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>5630000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>5799700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>4853900</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>7557100</v>
+        <v>8043800</v>
       </c>
       <c r="E61" s="3">
-        <v>6057300</v>
+        <v>7560200</v>
       </c>
       <c r="F61" s="3">
-        <v>5811500</v>
+        <v>7650800</v>
       </c>
       <c r="G61" s="3">
-        <v>5573000</v>
+        <v>7213600</v>
       </c>
       <c r="H61" s="3">
+        <v>5781900</v>
+      </c>
+      <c r="I61" s="3">
+        <v>5547400</v>
+      </c>
+      <c r="J61" s="3">
+        <v>5319600</v>
+      </c>
+      <c r="K61" s="3">
         <v>5111100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
         <v>5104400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="M61" s="3">
         <v>5178200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="N61" s="3">
         <v>5654600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="O61" s="3">
         <v>5830800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="P61" s="3">
         <v>5840500</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>4034600</v>
+        <v>3682600</v>
       </c>
       <c r="E62" s="3">
-        <v>2853500</v>
+        <v>3544600</v>
       </c>
       <c r="F62" s="3">
-        <v>2697000</v>
+        <v>3526100</v>
       </c>
       <c r="G62" s="3">
-        <v>2578300</v>
+        <v>3851200</v>
       </c>
       <c r="H62" s="3">
+        <v>2723800</v>
+      </c>
+      <c r="I62" s="3">
+        <v>2574400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>2461100</v>
+      </c>
+      <c r="K62" s="3">
         <v>2184400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="L62" s="3">
         <v>1988400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="M62" s="3">
         <v>1874200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="N62" s="3">
         <v>1860200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="O62" s="3">
         <v>2032600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="P62" s="3">
         <v>1915900</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2503,8 +2915,17 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2538,8 +2959,17 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2573,43 +3003,61 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>17510500</v>
+        <v>17837500</v>
       </c>
       <c r="E66" s="3">
-        <v>14338700</v>
+        <v>16852400</v>
       </c>
       <c r="F66" s="3">
-        <v>13756000</v>
+        <v>17728100</v>
       </c>
       <c r="G66" s="3">
-        <v>14382100</v>
+        <v>16714600</v>
       </c>
       <c r="H66" s="3">
+        <v>13687000</v>
+      </c>
+      <c r="I66" s="3">
+        <v>13130700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>13728400</v>
+      </c>
+      <c r="K66" s="3">
         <v>13716100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>12834200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>12499800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>13239200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>13793600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>12760400</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2623,8 +3071,11 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2658,8 +3109,17 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2693,8 +3153,17 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2728,8 +3197,17 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2763,43 +3241,61 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>19487200</v>
+        <v>18755300</v>
       </c>
       <c r="E72" s="3">
-        <v>19093300</v>
+        <v>18585600</v>
       </c>
       <c r="F72" s="3">
-        <v>18264100</v>
+        <v>18342000</v>
       </c>
       <c r="G72" s="3">
-        <v>17461300</v>
+        <v>18601400</v>
       </c>
       <c r="H72" s="3">
+        <v>18225400</v>
+      </c>
+      <c r="I72" s="3">
+        <v>17434000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>16667600</v>
+      </c>
+      <c r="K72" s="3">
         <v>15695600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>15173300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>14531800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>14306000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>14357800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>13922500</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2833,8 +3329,17 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2868,8 +3373,17 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2903,43 +3417,61 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>19774300</v>
+        <v>19108800</v>
       </c>
       <c r="E76" s="3">
-        <v>19265400</v>
+        <v>18923600</v>
       </c>
       <c r="F76" s="3">
-        <v>18220400</v>
+        <v>18682900</v>
       </c>
       <c r="G76" s="3">
-        <v>17416100</v>
+        <v>18875500</v>
       </c>
       <c r="H76" s="3">
+        <v>18389700</v>
+      </c>
+      <c r="I76" s="3">
+        <v>17392200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>16624500</v>
+      </c>
+      <c r="K76" s="3">
         <v>15701100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>15258700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>14584600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>14226800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>14374300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>13839700</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2973,83 +3505,110 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>423500</v>
+        <v>227400</v>
       </c>
       <c r="E81" s="3">
-        <v>904400</v>
+        <v>218200</v>
       </c>
       <c r="F81" s="3">
-        <v>799200</v>
+        <v>315400</v>
       </c>
       <c r="G81" s="3">
-        <v>611600</v>
+        <v>404200</v>
       </c>
       <c r="H81" s="3">
+        <v>863300</v>
+      </c>
+      <c r="I81" s="3">
+        <v>762900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>583800</v>
+      </c>
+      <c r="K81" s="3">
         <v>511800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>700300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>542500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>530200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>432400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>292600</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3063,43 +3622,55 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>745000</v>
+        <v>842600</v>
       </c>
       <c r="E83" s="3">
-        <v>710400</v>
+        <v>816100</v>
       </c>
       <c r="F83" s="3">
-        <v>709800</v>
+        <v>783100</v>
       </c>
       <c r="G83" s="3">
-        <v>725000</v>
+        <v>711200</v>
       </c>
       <c r="H83" s="3">
+        <v>678100</v>
+      </c>
+      <c r="I83" s="3">
+        <v>677500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>692100</v>
+      </c>
+      <c r="K83" s="3">
         <v>732200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="L83" s="3">
         <v>718700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="M83" s="3">
         <v>707600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="N83" s="3">
         <v>715200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="O83" s="3">
         <v>722200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="P83" s="3">
         <v>688100</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3133,8 +3704,17 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,8 +3748,17 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3203,8 +3792,17 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3238,8 +3836,17 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3273,43 +3880,61 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>1455200</v>
+        <v>704200</v>
       </c>
       <c r="E89" s="3">
-        <v>415000</v>
+        <v>866200</v>
       </c>
       <c r="F89" s="3">
-        <v>1073700</v>
+        <v>813700</v>
       </c>
       <c r="G89" s="3">
-        <v>868800</v>
+        <v>1389100</v>
       </c>
       <c r="H89" s="3">
+        <v>396100</v>
+      </c>
+      <c r="I89" s="3">
+        <v>1024900</v>
+      </c>
+      <c r="J89" s="3">
+        <v>829300</v>
+      </c>
+      <c r="K89" s="3">
         <v>828600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>969400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>776500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>837300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>1379600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>799200</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3323,43 +3948,55 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-827300</v>
+        <v>-751600</v>
       </c>
       <c r="E91" s="3">
-        <v>-675900</v>
+        <v>-545500</v>
       </c>
       <c r="F91" s="3">
-        <v>-401900</v>
+        <v>-581000</v>
       </c>
       <c r="G91" s="3">
-        <v>-552200</v>
+        <v>-789700</v>
       </c>
       <c r="H91" s="3">
+        <v>-645200</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-383600</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-527100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-730500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="L91" s="3">
         <v>-688700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="M91" s="3">
         <v>-391900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="N91" s="3">
         <v>-608900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="O91" s="3">
         <v>-1158400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="P91" s="3">
         <v>-855700</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3393,8 +4030,17 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3428,43 +4074,61 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-2392800</v>
+        <v>-959300</v>
       </c>
       <c r="E94" s="3">
-        <v>-317600</v>
+        <v>-386300</v>
       </c>
       <c r="F94" s="3">
-        <v>-373000</v>
+        <v>-369300</v>
       </c>
       <c r="G94" s="3">
-        <v>-478600</v>
+        <v>-2284100</v>
       </c>
       <c r="H94" s="3">
+        <v>-303200</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-356000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-456800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-845900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="L94" s="3">
         <v>-805200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="M94" s="3">
         <v>-473600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="N94" s="3">
         <v>-590600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="O94" s="3">
         <v>-755400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="P94" s="3">
         <v>-667600</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3478,43 +4142,55 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-60400</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-59300</v>
+      </c>
+      <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-62100</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-62100</v>
-      </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-63500</v>
       </c>
     </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3548,8 +4224,17 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3583,8 +4268,17 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3618,109 +4312,145 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-171100</v>
+        <v>113300</v>
       </c>
       <c r="E100" s="3">
-        <v>757000</v>
+        <v>-986500</v>
       </c>
       <c r="F100" s="3">
-        <v>-781700</v>
+        <v>17600</v>
       </c>
       <c r="G100" s="3">
-        <v>-13900</v>
+        <v>-163300</v>
       </c>
       <c r="H100" s="3">
+        <v>722600</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-746200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="K100" s="3">
         <v>30200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>19200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>-603000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="N100" s="3">
         <v>-177800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3">
         <v>-48400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="P100" s="3">
         <v>-343800</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>2600</v>
+        <v>5800</v>
       </c>
       <c r="E101" s="3">
-        <v>-3100</v>
+        <v>-2000</v>
       </c>
       <c r="F101" s="3">
-        <v>2200</v>
+        <v>400</v>
       </c>
       <c r="G101" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I101" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J101" s="3">
         <v>400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="K101" s="3">
         <v>-3600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="L101" s="3">
         <v>1100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="M101" s="3">
         <v>2300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="N101" s="3">
         <v>-5200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="O101" s="3">
         <v>5600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="P101" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-1106000</v>
+        <v>-136000</v>
       </c>
       <c r="E102" s="3">
-        <v>851300</v>
+        <v>-508600</v>
       </c>
       <c r="F102" s="3">
-        <v>-78800</v>
+        <v>462300</v>
       </c>
       <c r="G102" s="3">
-        <v>376600</v>
+        <v>-1055800</v>
       </c>
       <c r="H102" s="3">
+        <v>812600</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-75200</v>
+      </c>
+      <c r="J102" s="3">
+        <v>359500</v>
+      </c>
+      <c r="K102" s="3">
         <v>9300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>184400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>-297700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>63700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3">
         <v>581400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="P102" s="3">
         <v>-216300</v>
       </c>
     </row>
